--- a/data/trans_orig/IP1002-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1002-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6607695B-1DF2-42A0-9AB4-D25295ABE78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5904134E-786C-4C16-84C7-B03E2AA76644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{5C906A0E-AF9A-4927-A1C3-8F3655DBC313}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{B18C8373-2496-4A93-8F52-816C3458970E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,12 +68,99 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>99,04%</t>
   </si>
   <si>
@@ -101,9 +188,6 @@
     <t>99,26%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>0,96%</t>
   </si>
   <si>
@@ -131,64 +215,49 @@
     <t>2,55%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -242,75 +311,6 @@
     <t>2,57%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
     <t>98,82%</t>
   </si>
   <si>
@@ -362,6 +362,78 @@
     <t>Menores según si padecen bronquitis crónica en 2012 (Tasa respuesta: 99,29%)</t>
   </si>
   <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
     <t>97,36%</t>
   </si>
   <si>
@@ -404,58 +476,58 @@
     <t>3,75%</t>
   </si>
   <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
   </si>
   <si>
     <t>98,97%</t>
@@ -506,78 +578,6 @@
     <t>0,34%</t>
   </si>
   <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
     <t>97,61%</t>
   </si>
   <si>
@@ -629,6 +629,60 @@
     <t>Menores según si padecen bronquitis crónica en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
     <t>97,91%</t>
   </si>
   <si>
@@ -671,46 +725,28 @@
     <t>0,95%</t>
   </si>
   <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
   </si>
   <si>
     <t>97,23%</t>
@@ -749,42 +785,6 @@
     <t>2,3%</t>
   </si>
   <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
     <t>98,65%</t>
   </si>
   <si>
@@ -836,6 +836,66 @@
     <t>Menores según si padecen bronquitis crónica en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
     <t>99,03%</t>
   </si>
   <si>
@@ -866,60 +926,51 @@
     <t>0,93%</t>
   </si>
   <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
   </si>
   <si>
     <t>97,38%</t>
   </si>
   <si>
-    <t>99,29%</t>
-  </si>
-  <si>
     <t>97,72%</t>
   </si>
   <si>
@@ -932,9 +983,6 @@
     <t>2,62%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
     <t>2,28%</t>
   </si>
   <si>
@@ -942,54 +990,6 @@
   </si>
   <si>
     <t>1,93%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
   </si>
   <si>
     <t>98,66%</t>
@@ -1411,7 +1411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAE8A73-0BAD-4ACB-B1B2-FB015C97DBF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987B22D2-E227-4D46-9D3A-088843356707}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1529,10 +1529,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>319</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7">
-        <v>210116</v>
+        <v>25444</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1544,85 +1544,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>306</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7">
-        <v>191593</v>
+        <v>22724</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>62</v>
+      </c>
+      <c r="N4" s="7">
+        <v>48168</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>625</v>
-      </c>
-      <c r="N4" s="7">
-        <v>401709</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2026</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>6</v>
-      </c>
-      <c r="I5" s="7">
-        <v>3570</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>9</v>
-      </c>
-      <c r="N5" s="7">
-        <v>5596</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1631,54 +1631,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>212142</v>
+        <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="I6" s="7">
-        <v>195163</v>
+        <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>634</v>
+        <v>62</v>
       </c>
       <c r="N6" s="7">
-        <v>407305</v>
+        <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1690,13 +1690,13 @@
         <v>126304</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>170</v>
@@ -1705,13 +1705,13 @@
         <v>113372</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M7" s="7">
         <v>361</v>
@@ -1720,19 +1720,19 @@
         <v>239675</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
@@ -1741,13 +1741,13 @@
         <v>1329</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -1756,13 +1756,13 @@
         <v>2630</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -1771,13 +1771,13 @@
         <v>3960</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1792,13 +1792,13 @@
         <v>127633</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>174</v>
@@ -1807,13 +1807,13 @@
         <v>116002</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>367</v>
@@ -1822,117 +1822,117 @@
         <v>243635</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="D10" s="7">
-        <v>204033</v>
+        <v>210116</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H10" s="7">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="I10" s="7">
-        <v>207674</v>
+        <v>191593</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="M10" s="7">
-        <v>573</v>
+        <v>625</v>
       </c>
       <c r="N10" s="7">
-        <v>411707</v>
+        <v>401709</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>3791</v>
+        <v>2026</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I11" s="7">
-        <v>1641</v>
+        <v>3570</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="M11" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N11" s="7">
-        <v>5432</v>
+        <v>5596</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1941,153 +1941,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D12" s="7">
-        <v>207824</v>
+        <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="I12" s="7">
-        <v>209315</v>
+        <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>580</v>
+        <v>634</v>
       </c>
       <c r="N12" s="7">
-        <v>417139</v>
+        <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
+        <v>230</v>
       </c>
       <c r="D13" s="7">
-        <v>25444</v>
+        <v>148282</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="I13" s="7">
-        <v>22724</v>
+        <v>136075</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="M13" s="7">
-        <v>62</v>
+        <v>456</v>
       </c>
       <c r="N13" s="7">
-        <v>48168</v>
+        <v>284357</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>1375</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="7">
+        <v>3</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1742</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M14" s="7">
+        <v>5</v>
+      </c>
+      <c r="N14" s="7">
+        <v>3117</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2096,153 +2096,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D15" s="7">
-        <v>25444</v>
+        <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I15" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="N15" s="7">
-        <v>48168</v>
+        <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>230</v>
+        <v>301</v>
       </c>
       <c r="D16" s="7">
-        <v>148282</v>
+        <v>204033</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>272</v>
+      </c>
+      <c r="I16" s="7">
+        <v>207674</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="7">
-        <v>226</v>
-      </c>
-      <c r="I16" s="7">
-        <v>136075</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="7">
+        <v>573</v>
+      </c>
+      <c r="N16" s="7">
+        <v>411707</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="M16" s="7">
-        <v>456</v>
-      </c>
-      <c r="N16" s="7">
-        <v>284357</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>1375</v>
+        <v>3791</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>84</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>1742</v>
+        <v>1641</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>85</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>7</v>
+      </c>
+      <c r="N17" s="7">
+        <v>5432</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="M17" s="7">
-        <v>5</v>
-      </c>
-      <c r="N17" s="7">
-        <v>3117</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2251,49 +2251,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="D18" s="7">
-        <v>149657</v>
+        <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I18" s="7">
-        <v>137817</v>
+        <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N18" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,7 +2343,7 @@
         <v>96</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>97</v>
@@ -2352,7 +2352,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>12</v>
@@ -2397,7 +2397,7 @@
         <v>105</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2412,13 +2412,13 @@
         <v>722700</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -2427,13 +2427,13 @@
         <v>681021</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>2104</v>
@@ -2442,13 +2442,13 @@
         <v>1403721</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2469,7 +2469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2678CBC-3A4D-466B-A435-A16015749739}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE5738A-C87D-426D-86C0-959EFAE4BE8A}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2587,100 +2587,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>313</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>216124</v>
+        <v>25455</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>26</v>
+      </c>
+      <c r="I4" s="7">
+        <v>22373</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>54</v>
+      </c>
+      <c r="N4" s="7">
+        <v>47828</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H4" s="7">
-        <v>312</v>
-      </c>
-      <c r="I4" s="7">
-        <v>202013</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>625</v>
-      </c>
-      <c r="N4" s="7">
-        <v>418137</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>5854</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>3385</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="M5" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>9239</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,54 +2689,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>221978</v>
+        <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>317</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>205398</v>
+        <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>638</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>427376</v>
+        <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2748,13 +2748,13 @@
         <v>122553</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="H7" s="7">
         <v>156</v>
@@ -2763,13 +2763,13 @@
         <v>111734</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="M7" s="7">
         <v>330</v>
@@ -2778,19 +2778,19 @@
         <v>234287</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>7</v>
@@ -2799,13 +2799,13 @@
         <v>5090</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -2814,13 +2814,13 @@
         <v>2284</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -2829,13 +2829,13 @@
         <v>7374</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2850,13 +2850,13 @@
         <v>127643</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>159</v>
@@ -2865,13 +2865,13 @@
         <v>114018</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>340</v>
@@ -2880,117 +2880,117 @@
         <v>241661</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="D10" s="7">
-        <v>204949</v>
+        <v>216124</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="H10" s="7">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="I10" s="7">
-        <v>208220</v>
+        <v>202013</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="M10" s="7">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="N10" s="7">
-        <v>413169</v>
+        <v>418137</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D11" s="7">
-        <v>2133</v>
+        <v>5854</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I11" s="7">
-        <v>2080</v>
+        <v>3385</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>151</v>
+        <v>53</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="M11" s="7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N11" s="7">
-        <v>4213</v>
+        <v>9239</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,153 +2999,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>207082</v>
+        <v>221978</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="I12" s="7">
-        <v>210300</v>
+        <v>205398</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>556</v>
+        <v>638</v>
       </c>
       <c r="N12" s="7">
-        <v>417382</v>
+        <v>427376</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>248</v>
       </c>
       <c r="D13" s="7">
-        <v>25455</v>
+        <v>161175</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="H13" s="7">
-        <v>26</v>
+        <v>236</v>
       </c>
       <c r="I13" s="7">
-        <v>22373</v>
+        <v>151811</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="M13" s="7">
-        <v>54</v>
+        <v>484</v>
       </c>
       <c r="N13" s="7">
-        <v>47828</v>
+        <v>312986</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>30</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>4810</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H14" s="7">
+        <v>5</v>
+      </c>
+      <c r="I14" s="7">
+        <v>3028</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>159</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>7838</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,153 +3154,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="D15" s="7">
-        <v>25455</v>
+        <v>165985</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="I15" s="7">
-        <v>22373</v>
+        <v>154839</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>496</v>
       </c>
       <c r="N15" s="7">
-        <v>47828</v>
+        <v>320824</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="D16" s="7">
-        <v>161175</v>
+        <v>204949</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H16" s="7">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="I16" s="7">
-        <v>151811</v>
+        <v>208220</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M16" s="7">
-        <v>484</v>
+        <v>550</v>
       </c>
       <c r="N16" s="7">
-        <v>312986</v>
+        <v>413169</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>4810</v>
+        <v>2133</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>3028</v>
+        <v>2080</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M17" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N17" s="7">
-        <v>7838</v>
+        <v>4213</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,49 +3309,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="D18" s="7">
-        <v>165985</v>
+        <v>207082</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="I18" s="7">
-        <v>154839</v>
+        <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N18" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,7 +3410,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>25</v>
@@ -3470,13 +3470,13 @@
         <v>748142</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -3485,13 +3485,13 @@
         <v>706928</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>2084</v>
@@ -3500,13 +3500,13 @@
         <v>1455070</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3527,7 +3527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF41D72D-F7F2-4048-AAB8-29E67E096CEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642DE1DC-F990-4D65-AE8D-9BDB6BD853B4}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3645,100 +3645,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>325</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>219670</v>
+        <v>25574</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>24</v>
+      </c>
+      <c r="I4" s="7">
+        <v>22527</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="H4" s="7">
-        <v>329</v>
-      </c>
-      <c r="I4" s="7">
-        <v>204343</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>654</v>
+        <v>54</v>
       </c>
       <c r="N4" s="7">
-        <v>424013</v>
+        <v>48101</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>202</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>4689</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>203</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>204</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>2904</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>206</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>207</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>84</v>
+        <v>199</v>
       </c>
       <c r="M5" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>7593</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>209</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>170</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,54 +3747,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
-        <v>224359</v>
+        <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>207247</v>
+        <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>666</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>431606</v>
+        <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3806,13 +3806,13 @@
         <v>121850</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>161</v>
@@ -3821,13 +3821,13 @@
         <v>109967</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>325</v>
@@ -3836,19 +3836,19 @@
         <v>231817</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -3857,13 +3857,13 @@
         <v>652</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -3872,13 +3872,13 @@
         <v>1213</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -3887,13 +3887,13 @@
         <v>1865</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,13 +3908,13 @@
         <v>122502</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>163</v>
@@ -3923,13 +3923,13 @@
         <v>111180</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>328</v>
@@ -3938,117 +3938,117 @@
         <v>233682</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="D10" s="7">
-        <v>203588</v>
+        <v>219670</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>32</v>
+        <v>214</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="H10" s="7">
-        <v>278</v>
+        <v>329</v>
       </c>
       <c r="I10" s="7">
-        <v>205034</v>
+        <v>204343</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>226</v>
+        <v>60</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="M10" s="7">
-        <v>565</v>
+        <v>654</v>
       </c>
       <c r="N10" s="7">
-        <v>408622</v>
+        <v>424013</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>229</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D11" s="7">
-        <v>2148</v>
+        <v>4689</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>41</v>
+        <v>221</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>86</v>
+        <v>222</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I11" s="7">
-        <v>2386</v>
+        <v>2904</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>233</v>
+        <v>67</v>
       </c>
       <c r="M11" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N11" s="7">
-        <v>4534</v>
+        <v>7593</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>235</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4057,153 +4057,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="D12" s="7">
-        <v>205736</v>
+        <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="I12" s="7">
-        <v>207420</v>
+        <v>207247</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>571</v>
+        <v>666</v>
       </c>
       <c r="N12" s="7">
-        <v>413156</v>
+        <v>431606</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>244</v>
       </c>
       <c r="D13" s="7">
-        <v>25574</v>
+        <v>164085</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>228</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>230</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>257</v>
       </c>
       <c r="I13" s="7">
-        <v>22527</v>
+        <v>154786</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>237</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>54</v>
+        <v>501</v>
       </c>
       <c r="N13" s="7">
-        <v>48101</v>
+        <v>318871</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>157</v>
+        <v>231</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>30</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>2588</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>42</v>
+        <v>232</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>233</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>1211</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>3799</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>71</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,150 +4212,150 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D15" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I15" s="7">
-        <v>22527</v>
+        <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>507</v>
       </c>
       <c r="N15" s="7">
-        <v>48101</v>
+        <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="D16" s="7">
-        <v>164085</v>
+        <v>203588</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="7">
+        <v>278</v>
+      </c>
+      <c r="I16" s="7">
+        <v>205034</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="M16" s="7">
+        <v>565</v>
+      </c>
+      <c r="N16" s="7">
+        <v>408622</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H16" s="7">
-        <v>257</v>
-      </c>
-      <c r="I16" s="7">
-        <v>154786</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M16" s="7">
-        <v>501</v>
-      </c>
-      <c r="N16" s="7">
-        <v>318871</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>243</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>2588</v>
+        <v>2148</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2386</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1211</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
       </c>
       <c r="N17" s="7">
-        <v>3799</v>
+        <v>4534</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>247</v>
@@ -4367,49 +4367,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="D18" s="7">
-        <v>166673</v>
+        <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="I18" s="7">
-        <v>155997</v>
+        <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N18" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,7 +4441,7 @@
         <v>696657</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>251</v>
@@ -4468,7 +4468,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>15</v>
@@ -4492,7 +4492,7 @@
         <v>7714</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>259</v>
@@ -4528,13 +4528,13 @@
         <v>744844</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>1061</v>
@@ -4543,13 +4543,13 @@
         <v>704371</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>2126</v>
@@ -4558,13 +4558,13 @@
         <v>1449215</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -4585,7 +4585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F604A6C-DF9E-4B89-9BB5-51D67CDAEC8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F477E7-F5C3-4947-BABB-795D7EC1CDD5}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4703,100 +4703,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>340</v>
+        <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>247759</v>
+        <v>12698</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>161</v>
-      </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>277</v>
+        <v>28</v>
       </c>
       <c r="I4" s="7">
-        <v>190673</v>
+        <v>16787</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>47</v>
+      </c>
+      <c r="N4" s="7">
+        <v>29485</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="M4" s="7">
-        <v>617</v>
-      </c>
-      <c r="N4" s="7">
-        <v>438431</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>2427</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>270</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>170</v>
+        <v>267</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>1679</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>271</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>272</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>273</v>
+        <v>110</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>4107</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>274</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>103</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,54 +4805,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>343</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7">
-        <v>250186</v>
+        <v>12698</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="I6" s="7">
-        <v>192352</v>
+        <v>16787</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>623</v>
+        <v>47</v>
       </c>
       <c r="N6" s="7">
-        <v>442538</v>
+        <v>29485</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4864,13 +4864,13 @@
         <v>111875</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>165</v>
@@ -4879,13 +4879,13 @@
         <v>101392</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="M7" s="7">
         <v>314</v>
@@ -4894,19 +4894,19 @@
         <v>213267</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
@@ -4915,13 +4915,13 @@
         <v>1819</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -4930,13 +4930,13 @@
         <v>2503</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -4945,13 +4945,13 @@
         <v>4322</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4966,13 +4966,13 @@
         <v>113694</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>168</v>
@@ -4981,13 +4981,13 @@
         <v>103895</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>319</v>
@@ -4996,117 +4996,117 @@
         <v>217589</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>236</v>
+        <v>340</v>
       </c>
       <c r="D10" s="7">
-        <v>173613</v>
+        <v>247759</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>214</v>
+        <v>285</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>291</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H10" s="7">
-        <v>238</v>
+        <v>277</v>
       </c>
       <c r="I10" s="7">
-        <v>170723</v>
+        <v>190673</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>34</v>
+        <v>288</v>
       </c>
       <c r="M10" s="7">
-        <v>474</v>
+        <v>617</v>
       </c>
       <c r="N10" s="7">
-        <v>344335</v>
+        <v>438431</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>95</v>
+        <v>289</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>294</v>
+        <v>94</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>295</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>1403</v>
+        <v>2427</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>221</v>
+        <v>290</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>296</v>
+        <v>154</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>1220</v>
+        <v>1679</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>42</v>
+        <v>292</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N11" s="7">
-        <v>2623</v>
+        <v>4107</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>102</v>
+        <v>294</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>299</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>300</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,153 +5115,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>238</v>
+        <v>343</v>
       </c>
       <c r="D12" s="7">
-        <v>175016</v>
+        <v>250186</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="I12" s="7">
-        <v>171943</v>
+        <v>192352</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>478</v>
+        <v>623</v>
       </c>
       <c r="N12" s="7">
-        <v>346958</v>
+        <v>442538</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>19</v>
+        <v>220</v>
       </c>
       <c r="D13" s="7">
-        <v>12698</v>
+        <v>169159</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>295</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H13" s="7">
+        <v>221</v>
+      </c>
+      <c r="I13" s="7">
+        <v>164470</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" s="7">
+        <v>441</v>
+      </c>
+      <c r="N13" s="7">
+        <v>333629</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="7">
-        <v>28</v>
-      </c>
-      <c r="I13" s="7">
-        <v>16787</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="7">
-        <v>47</v>
-      </c>
-      <c r="N13" s="7">
-        <v>29485</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>302</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>4049</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>42</v>
+        <v>302</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>303</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>3432</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>42</v>
+        <v>305</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>158</v>
+        <v>306</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>7481</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>42</v>
+        <v>307</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5270,150 +5270,150 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="D15" s="7">
-        <v>12698</v>
+        <v>173208</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>28</v>
+        <v>226</v>
       </c>
       <c r="I15" s="7">
-        <v>16787</v>
+        <v>167902</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>47</v>
+        <v>451</v>
       </c>
       <c r="N15" s="7">
-        <v>29485</v>
+        <v>341110</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="D16" s="7">
-        <v>169159</v>
+        <v>173613</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>305</v>
+        <v>204</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="I16" s="7">
-        <v>164470</v>
+        <v>170723</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M16" s="7">
-        <v>441</v>
+        <v>474</v>
       </c>
       <c r="N16" s="7">
-        <v>333629</v>
+        <v>344335</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>309</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>32</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>4049</v>
+        <v>1403</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>297</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>3432</v>
+        <v>1220</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>314</v>
       </c>
       <c r="M17" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>7481</v>
+        <v>2623</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>316</v>
@@ -5425,49 +5425,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D18" s="7">
-        <v>173208</v>
+        <v>175016</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="I18" s="7">
-        <v>167902</v>
+        <v>171943</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>451</v>
+        <v>478</v>
       </c>
       <c r="N18" s="7">
-        <v>341110</v>
+        <v>346958</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,7 +5490,7 @@
         <v>318</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="H19" s="7">
         <v>929</v>
@@ -5526,7 +5526,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>12</v>
@@ -5538,7 +5538,7 @@
         <v>322</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>323</v>
@@ -5586,13 +5586,13 @@
         <v>724802</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>942</v>
@@ -5601,13 +5601,13 @@
         <v>652879</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>1918</v>
@@ -5616,13 +5616,13 @@
         <v>1377681</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1002-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1002-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5904134E-786C-4C16-84C7-B03E2AA76644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CC6621A-D067-4631-B216-6A785D7FBE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{B18C8373-2496-4A93-8F52-816C3458970E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8CC9686A-3599-4986-B15F-208A686F4A23}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="324">
   <si>
     <t>Menores según si padecen bronquitis crónica en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -71,6 +71,24 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -89,937 +107,910 @@
     <t>96,96%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
     <t>98,96%</t>
   </si>
   <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen bronquitis crónica en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
     <t>96,45%</t>
   </si>
   <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen bronquitis crónica en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
   </si>
   <si>
     <t>99,25%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen bronquitis crónica en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
   </si>
   <si>
     <t>99,24%</t>
   </si>
   <si>
-    <t>98,71%</t>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
   </si>
   <si>
     <t>99,14%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen bronquitis crónica en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen bronquitis crónica en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen bronquitis crónica en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1021,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1126,39 +1117,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1210,7 +1201,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1321,13 +1312,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1336,6 +1320,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1400,19 +1391,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987B22D2-E227-4D46-9D3A-088843356707}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4C589F-1018-4CAF-A441-9AF5697E61A0}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1529,10 +1540,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25444</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1544,34 +1555,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22724</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>48168</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1580,10 +1591,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25444</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1595,34 +1606,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22724</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>48168</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1637,13 +1648,13 @@
         <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>29</v>
@@ -1652,13 +1663,13 @@
         <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>62</v>
@@ -1667,13 +1678,13 @@
         <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1684,25 +1695,25 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>191</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>126304</v>
+        <v>1329</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H7" s="7">
-        <v>170</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>113372</v>
+        <v>2630</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>25</v>
@@ -1714,10 +1725,10 @@
         <v>27</v>
       </c>
       <c r="M7" s="7">
-        <v>361</v>
+        <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>239675</v>
+        <v>3960</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>28</v>
@@ -1735,25 +1746,25 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>191</v>
       </c>
       <c r="D8" s="7">
-        <v>1329</v>
+        <v>126304</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="H8" s="7">
-        <v>4</v>
+        <v>170</v>
       </c>
       <c r="I8" s="7">
-        <v>2630</v>
+        <v>113372</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>33</v>
@@ -1765,10 +1776,10 @@
         <v>35</v>
       </c>
       <c r="M8" s="7">
-        <v>6</v>
+        <v>361</v>
       </c>
       <c r="N8" s="7">
-        <v>3960</v>
+        <v>239675</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>36</v>
@@ -1792,13 +1803,13 @@
         <v>127633</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>174</v>
@@ -1807,13 +1818,13 @@
         <v>116002</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>367</v>
@@ -1822,13 +1833,13 @@
         <v>243635</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1839,10 +1850,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>319</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>210116</v>
+        <v>2026</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>40</v>
@@ -1854,10 +1865,10 @@
         <v>42</v>
       </c>
       <c r="H10" s="7">
-        <v>306</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>191593</v>
+        <v>3570</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>43</v>
@@ -1869,10 +1880,10 @@
         <v>45</v>
       </c>
       <c r="M10" s="7">
-        <v>625</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>401709</v>
+        <v>5596</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>46</v>
@@ -1890,10 +1901,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>319</v>
       </c>
       <c r="D11" s="7">
-        <v>2026</v>
+        <v>210116</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>49</v>
@@ -1905,10 +1916,10 @@
         <v>51</v>
       </c>
       <c r="H11" s="7">
-        <v>6</v>
+        <v>306</v>
       </c>
       <c r="I11" s="7">
-        <v>3570</v>
+        <v>191593</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>52</v>
@@ -1920,10 +1931,10 @@
         <v>54</v>
       </c>
       <c r="M11" s="7">
-        <v>9</v>
+        <v>625</v>
       </c>
       <c r="N11" s="7">
-        <v>5596</v>
+        <v>401709</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>55</v>
@@ -1947,13 +1958,13 @@
         <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>312</v>
@@ -1962,13 +1973,13 @@
         <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>634</v>
@@ -1977,13 +1988,13 @@
         <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1994,25 +2005,25 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>230</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>148282</v>
+        <v>1375</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>59</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H13" s="7">
-        <v>226</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>136075</v>
+        <v>1742</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>61</v>
@@ -2024,19 +2035,19 @@
         <v>63</v>
       </c>
       <c r="M13" s="7">
-        <v>456</v>
+        <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>284357</v>
+        <v>3117</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>64</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2045,49 +2056,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>230</v>
       </c>
       <c r="D14" s="7">
-        <v>1375</v>
+        <v>148282</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>226</v>
       </c>
       <c r="I14" s="7">
-        <v>1742</v>
+        <v>136075</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M14" s="7">
-        <v>5</v>
+        <v>456</v>
       </c>
       <c r="N14" s="7">
-        <v>3117</v>
+        <v>284357</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2102,13 +2113,13 @@
         <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>229</v>
@@ -2117,13 +2128,13 @@
         <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>461</v>
@@ -2132,66 +2143,66 @@
         <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>301</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>204033</v>
+        <v>3791</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H16" s="7">
-        <v>272</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>207674</v>
+        <v>1641</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="M16" s="7">
-        <v>573</v>
+        <v>7</v>
       </c>
       <c r="N16" s="7">
-        <v>411707</v>
+        <v>5432</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2200,49 +2211,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>301</v>
       </c>
       <c r="D17" s="7">
-        <v>3791</v>
+        <v>204033</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>272</v>
       </c>
       <c r="I17" s="7">
-        <v>1641</v>
+        <v>207674</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="M17" s="7">
-        <v>7</v>
+        <v>573</v>
       </c>
       <c r="N17" s="7">
-        <v>5432</v>
+        <v>411707</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2257,13 +2268,13 @@
         <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>274</v>
@@ -2272,13 +2283,13 @@
         <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>580</v>
@@ -2287,13 +2298,13 @@
         <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,10 +2315,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1074</v>
+        <v>12</v>
       </c>
       <c r="D19" s="7">
-        <v>714179</v>
+        <v>8521</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>90</v>
@@ -2319,10 +2330,10 @@
         <v>92</v>
       </c>
       <c r="H19" s="7">
-        <v>1003</v>
+        <v>15</v>
       </c>
       <c r="I19" s="7">
-        <v>671437</v>
+        <v>9584</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>93</v>
@@ -2334,19 +2345,19 @@
         <v>95</v>
       </c>
       <c r="M19" s="7">
-        <v>2077</v>
+        <v>27</v>
       </c>
       <c r="N19" s="7">
-        <v>1385616</v>
+        <v>18105</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>96</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,49 +2366,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>12</v>
+        <v>1074</v>
       </c>
       <c r="D20" s="7">
-        <v>8521</v>
+        <v>714179</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H20" s="7">
-        <v>15</v>
+        <v>1003</v>
       </c>
       <c r="I20" s="7">
-        <v>9584</v>
+        <v>671437</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M20" s="7">
-        <v>27</v>
+        <v>2077</v>
       </c>
       <c r="N20" s="7">
-        <v>18105</v>
+        <v>1385616</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2412,13 +2423,13 @@
         <v>722700</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -2427,13 +2438,13 @@
         <v>681021</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2104</v>
@@ -2442,13 +2453,18 @@
         <v>1403721</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2469,8 +2485,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE5738A-C87D-426D-86C0-959EFAE4BE8A}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9B9416-4265-41C6-A9C6-AA557F4411D7}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2486,7 +2502,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2587,49 +2603,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25455</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22373</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>47828</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,49 +2654,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25455</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22373</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>47828</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2695,13 +2711,13 @@
         <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>26</v>
@@ -2710,13 +2726,13 @@
         <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -2725,13 +2741,13 @@
         <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,49 +2758,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>174</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>122553</v>
+        <v>5090</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H7" s="7">
-        <v>156</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>111734</v>
+        <v>2284</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M7" s="7">
-        <v>330</v>
+        <v>10</v>
       </c>
       <c r="N7" s="7">
-        <v>234287</v>
+        <v>7374</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,49 +2809,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>174</v>
       </c>
       <c r="D8" s="7">
-        <v>5090</v>
+        <v>122553</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>156</v>
       </c>
       <c r="I8" s="7">
-        <v>2284</v>
+        <v>111734</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M8" s="7">
-        <v>10</v>
+        <v>330</v>
       </c>
       <c r="N8" s="7">
-        <v>7374</v>
+        <v>234287</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2850,13 +2866,13 @@
         <v>127643</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>159</v>
@@ -2865,13 +2881,13 @@
         <v>114018</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>340</v>
@@ -2880,13 +2896,13 @@
         <v>241661</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,49 +2913,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>313</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>216124</v>
+        <v>5854</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H10" s="7">
-        <v>312</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>202013</v>
+        <v>3385</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="M10" s="7">
-        <v>625</v>
+        <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>418137</v>
+        <v>9239</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,49 +2964,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>313</v>
       </c>
       <c r="D11" s="7">
-        <v>5854</v>
+        <v>216123</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>312</v>
       </c>
       <c r="I11" s="7">
-        <v>3385</v>
+        <v>202013</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="M11" s="7">
-        <v>13</v>
+        <v>625</v>
       </c>
       <c r="N11" s="7">
-        <v>9239</v>
+        <v>418137</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>143</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,16 +3018,16 @@
         <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>221978</v>
+        <v>221977</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -3020,13 +3036,13 @@
         <v>205398</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>638</v>
@@ -3035,13 +3051,13 @@
         <v>427376</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,25 +3068,25 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>248</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>161175</v>
+        <v>4810</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>147</v>
       </c>
       <c r="H13" s="7">
-        <v>236</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>151811</v>
+        <v>3028</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>148</v>
@@ -3082,10 +3098,10 @@
         <v>150</v>
       </c>
       <c r="M13" s="7">
-        <v>484</v>
+        <v>12</v>
       </c>
       <c r="N13" s="7">
-        <v>312986</v>
+        <v>7838</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>151</v>
@@ -3103,10 +3119,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>7</v>
+        <v>248</v>
       </c>
       <c r="D14" s="7">
-        <v>4810</v>
+        <v>161175</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>154</v>
@@ -3115,37 +3131,37 @@
         <v>155</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" s="7">
+        <v>236</v>
+      </c>
+      <c r="I14" s="7">
+        <v>151811</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H14" s="7">
-        <v>5</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3028</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>484</v>
+      </c>
+      <c r="N14" s="7">
+        <v>312986</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="M14" s="7">
-        <v>12</v>
-      </c>
-      <c r="N14" s="7">
-        <v>7838</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,13 +3176,13 @@
         <v>165985</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>241</v>
@@ -3175,13 +3191,13 @@
         <v>154839</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>496</v>
@@ -3190,66 +3206,66 @@
         <v>320824</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>278</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>204949</v>
+        <v>2133</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2080</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H16" s="7">
-        <v>272</v>
-      </c>
-      <c r="I16" s="7">
-        <v>208220</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="7">
+        <v>6</v>
+      </c>
+      <c r="N16" s="7">
+        <v>4213</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="M16" s="7">
-        <v>550</v>
-      </c>
-      <c r="N16" s="7">
-        <v>413169</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,49 +3274,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>278</v>
       </c>
       <c r="D17" s="7">
-        <v>2133</v>
+        <v>204949</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H17" s="7">
+        <v>272</v>
+      </c>
+      <c r="I17" s="7">
+        <v>208220</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>550</v>
+      </c>
+      <c r="N17" s="7">
+        <v>413169</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H17" s="7">
-        <v>3</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2080</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="M17" s="7">
-        <v>6</v>
-      </c>
-      <c r="N17" s="7">
-        <v>4213</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,13 +3331,13 @@
         <v>207082</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>275</v>
@@ -3330,13 +3346,13 @@
         <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>556</v>
@@ -3345,13 +3361,13 @@
         <v>417382</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3362,49 +3378,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1041</v>
+        <v>25</v>
       </c>
       <c r="D19" s="7">
-        <v>730255</v>
+        <v>17887</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H19" s="7">
+        <v>16</v>
+      </c>
+      <c r="I19" s="7">
+        <v>10777</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H19" s="7">
-        <v>1002</v>
-      </c>
-      <c r="I19" s="7">
-        <v>696151</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>41</v>
+      </c>
+      <c r="N19" s="7">
+        <v>28664</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="M19" s="7">
-        <v>2043</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1426406</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,49 +3429,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>25</v>
+        <v>1041</v>
       </c>
       <c r="D20" s="7">
-        <v>17887</v>
+        <v>730255</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>189</v>
-      </c>
       <c r="H20" s="7">
-        <v>16</v>
+        <v>1002</v>
       </c>
       <c r="I20" s="7">
-        <v>10777</v>
+        <v>696151</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>188</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>2043</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1426406</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="M20" s="7">
-        <v>41</v>
-      </c>
-      <c r="N20" s="7">
-        <v>28664</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,13 +3486,13 @@
         <v>748142</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -3485,13 +3501,13 @@
         <v>706928</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2084</v>
@@ -3500,13 +3516,18 @@
         <v>1455070</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3527,8 +3548,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642DE1DC-F990-4D65-AE8D-9BDB6BD853B4}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6352E21A-6C8F-4735-9211-50E2A7BBAD31}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3544,7 +3565,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3645,49 +3666,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25574</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>196</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>195</v>
       </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22527</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="M4" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>48101</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3696,49 +3717,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25574</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>197</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>198</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22527</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>48101</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,13 +3774,13 @@
         <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>24</v>
@@ -3768,13 +3789,13 @@
         <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -3783,13 +3804,13 @@
         <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,49 +3821,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>164</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>121850</v>
+        <v>652</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1213</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="7">
-        <v>161</v>
-      </c>
-      <c r="I7" s="7">
-        <v>109967</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>3</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1865</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="7">
-        <v>325</v>
-      </c>
-      <c r="N7" s="7">
-        <v>231817</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,49 +3872,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="D8" s="7">
-        <v>652</v>
+        <v>121850</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>161</v>
+      </c>
+      <c r="I8" s="7">
+        <v>109967</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="H8" s="7">
-        <v>2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1213</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>325</v>
+      </c>
+      <c r="N8" s="7">
+        <v>231817</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="M8" s="7">
-        <v>3</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1865</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,13 +3929,13 @@
         <v>122502</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>163</v>
@@ -3923,13 +3944,13 @@
         <v>111180</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>328</v>
@@ -3938,13 +3959,13 @@
         <v>233682</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,49 +3976,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>325</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>219670</v>
+        <v>4689</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>5</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2904</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="H10" s="7">
-        <v>329</v>
-      </c>
-      <c r="I10" s="7">
-        <v>204343</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>12</v>
+      </c>
+      <c r="N10" s="7">
+        <v>7593</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="M10" s="7">
-        <v>654</v>
-      </c>
-      <c r="N10" s="7">
-        <v>424013</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,49 +4027,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>325</v>
       </c>
       <c r="D11" s="7">
-        <v>4689</v>
+        <v>219670</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H11" s="7">
+        <v>329</v>
+      </c>
+      <c r="I11" s="7">
+        <v>204343</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>654</v>
+      </c>
+      <c r="N11" s="7">
+        <v>424013</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="H11" s="7">
-        <v>5</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2904</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M11" s="7">
-        <v>12</v>
-      </c>
-      <c r="N11" s="7">
-        <v>7593</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,13 +4084,13 @@
         <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>334</v>
@@ -4078,13 +4099,13 @@
         <v>207247</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>666</v>
@@ -4093,13 +4114,13 @@
         <v>431606</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,49 +4131,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>244</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>164085</v>
+        <v>2588</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1211</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H13" s="7">
-        <v>257</v>
-      </c>
-      <c r="I13" s="7">
-        <v>154786</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M13" s="7">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="N13" s="7">
-        <v>318871</v>
+        <v>3799</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>90</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,49 +4182,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>244</v>
       </c>
       <c r="D14" s="7">
-        <v>2588</v>
+        <v>164085</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>257</v>
+      </c>
+      <c r="I14" s="7">
+        <v>154786</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="7">
+        <v>501</v>
+      </c>
+      <c r="N14" s="7">
+        <v>318871</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1211</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="M14" s="7">
-        <v>6</v>
-      </c>
-      <c r="N14" s="7">
-        <v>3799</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,13 +4239,13 @@
         <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>259</v>
@@ -4233,13 +4254,13 @@
         <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>507</v>
@@ -4248,66 +4269,66 @@
         <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>287</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>203588</v>
+        <v>2148</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2386</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="7">
-        <v>278</v>
-      </c>
-      <c r="I16" s="7">
-        <v>205034</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>6</v>
+      </c>
+      <c r="N16" s="7">
+        <v>4534</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="M16" s="7">
-        <v>565</v>
-      </c>
-      <c r="N16" s="7">
-        <v>408622</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,25 +4337,25 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>287</v>
       </c>
       <c r="D17" s="7">
-        <v>2148</v>
+        <v>203588</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>242</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>242</v>
+        <v>71</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>278</v>
       </c>
       <c r="I17" s="7">
-        <v>2386</v>
+        <v>205034</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>243</v>
@@ -4346,19 +4367,19 @@
         <v>245</v>
       </c>
       <c r="M17" s="7">
-        <v>6</v>
+        <v>565</v>
       </c>
       <c r="N17" s="7">
-        <v>4534</v>
+        <v>408622</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,13 +4394,13 @@
         <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>281</v>
@@ -4388,13 +4409,13 @@
         <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>571</v>
@@ -4403,13 +4424,13 @@
         <v>413156</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4420,49 +4441,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1050</v>
+        <v>15</v>
       </c>
       <c r="D19" s="7">
-        <v>734767</v>
+        <v>10077</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H19" s="7">
-        <v>1049</v>
+        <v>12</v>
       </c>
       <c r="I19" s="7">
-        <v>696657</v>
+        <v>7714</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>252</v>
+        <v>98</v>
       </c>
       <c r="M19" s="7">
-        <v>2099</v>
+        <v>27</v>
       </c>
       <c r="N19" s="7">
-        <v>1431424</v>
+        <v>17791</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>253</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4471,49 +4492,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>15</v>
+        <v>1050</v>
       </c>
       <c r="D20" s="7">
-        <v>10077</v>
+        <v>734767</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>258</v>
-      </c>
       <c r="H20" s="7">
-        <v>12</v>
+        <v>1049</v>
       </c>
       <c r="I20" s="7">
-        <v>7714</v>
+        <v>696657</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>246</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="M20" s="7">
+        <v>2099</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1431424</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="M20" s="7">
-        <v>27</v>
-      </c>
-      <c r="N20" s="7">
-        <v>17791</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>262</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>263</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4528,13 +4549,13 @@
         <v>744844</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1061</v>
@@ -4543,13 +4564,13 @@
         <v>704371</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2126</v>
@@ -4558,13 +4579,18 @@
         <v>1449215</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4585,8 +4611,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F477E7-F5C3-4947-BABB-795D7EC1CDD5}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8761FFB6-9FAC-46BF-9F97-207E7EF2707C}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4602,7 +4628,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4703,49 +4729,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>12698</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>265</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>262</v>
       </c>
       <c r="H4" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>16787</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M4" s="7">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>29485</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>266</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,49 +4780,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>12698</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>263</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>267</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>16787</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>29485</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>268</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,13 +4837,13 @@
         <v>12698</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>28</v>
@@ -4826,13 +4852,13 @@
         <v>16787</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>47</v>
@@ -4841,13 +4867,13 @@
         <v>29485</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,49 +4884,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>149</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>111875</v>
+        <v>1819</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H7" s="7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2503</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="M7" s="7">
+        <v>5</v>
+      </c>
+      <c r="N7" s="7">
+        <v>4322</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="7">
-        <v>165</v>
-      </c>
-      <c r="I7" s="7">
-        <v>101392</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="M7" s="7">
-        <v>314</v>
-      </c>
-      <c r="N7" s="7">
-        <v>213267</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,49 +4935,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>149</v>
       </c>
       <c r="D8" s="7">
-        <v>1819</v>
+        <v>111875</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="7">
+        <v>165</v>
+      </c>
+      <c r="I8" s="7">
+        <v>101392</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M8" s="7">
+        <v>314</v>
+      </c>
+      <c r="N8" s="7">
+        <v>213267</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="H8" s="7">
-        <v>3</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2503</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="M8" s="7">
-        <v>5</v>
-      </c>
-      <c r="N8" s="7">
-        <v>4322</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4966,13 +4992,13 @@
         <v>113694</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>168</v>
@@ -4981,13 +5007,13 @@
         <v>103895</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>319</v>
@@ -4996,13 +5022,13 @@
         <v>217589</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,49 +5039,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>340</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>247759</v>
+        <v>2427</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>277</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>190673</v>
+        <v>1679</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>286</v>
+        <v>97</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>288</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
-        <v>617</v>
+        <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>438431</v>
+        <v>4107</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>94</v>
+        <v>281</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,49 +5090,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>340</v>
       </c>
       <c r="D11" s="7">
-        <v>2427</v>
+        <v>247759</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>277</v>
       </c>
       <c r="I11" s="7">
-        <v>1679</v>
+        <v>190673</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>291</v>
+        <v>107</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="M11" s="7">
-        <v>6</v>
+        <v>617</v>
       </c>
       <c r="N11" s="7">
-        <v>4107</v>
+        <v>438431</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>103</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5121,13 +5147,13 @@
         <v>250186</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>280</v>
@@ -5136,13 +5162,13 @@
         <v>192352</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>623</v>
@@ -5151,13 +5177,13 @@
         <v>442538</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5168,49 +5194,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>169159</v>
+        <v>4049</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>296</v>
+        <v>149</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="H13" s="7">
-        <v>221</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>164470</v>
+        <v>3432</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>289</v>
       </c>
       <c r="M13" s="7">
-        <v>441</v>
+        <v>10</v>
       </c>
       <c r="N13" s="7">
-        <v>333629</v>
+        <v>7481</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>23</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5219,49 +5245,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="D14" s="7">
-        <v>4049</v>
+        <v>169159</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>304</v>
+        <v>158</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>221</v>
       </c>
       <c r="I14" s="7">
-        <v>3432</v>
+        <v>164470</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>56</v>
+        <v>295</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="M14" s="7">
-        <v>10</v>
+        <v>441</v>
       </c>
       <c r="N14" s="7">
-        <v>7481</v>
+        <v>333629</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>31</v>
+        <v>298</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5276,13 +5302,13 @@
         <v>173208</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>226</v>
@@ -5291,13 +5317,13 @@
         <v>167902</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>451</v>
@@ -5306,66 +5332,66 @@
         <v>341110</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>236</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>173613</v>
+        <v>1403</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>309</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1220</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="7">
-        <v>238</v>
-      </c>
-      <c r="I16" s="7">
-        <v>170723</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>310</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>302</v>
       </c>
       <c r="M16" s="7">
-        <v>474</v>
+        <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>344335</v>
+        <v>2623</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>303</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5374,49 +5400,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>236</v>
       </c>
       <c r="D17" s="7">
-        <v>1403</v>
+        <v>173613</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>313</v>
-      </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>238</v>
       </c>
       <c r="I17" s="7">
-        <v>1220</v>
+        <v>170723</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>314</v>
-      </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>474</v>
       </c>
       <c r="N17" s="7">
-        <v>2623</v>
+        <v>344335</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>309</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5431,13 +5457,13 @@
         <v>175016</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>240</v>
@@ -5446,13 +5472,13 @@
         <v>171943</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>478</v>
@@ -5461,13 +5487,13 @@
         <v>346958</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,49 +5504,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>964</v>
+        <v>12</v>
       </c>
       <c r="D19" s="7">
-        <v>715104</v>
+        <v>9698</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H19" s="7">
+        <v>13</v>
+      </c>
+      <c r="I19" s="7">
+        <v>8833</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="M19" s="7">
+        <v>25</v>
+      </c>
+      <c r="N19" s="7">
+        <v>18532</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="H19" s="7">
-        <v>929</v>
-      </c>
-      <c r="I19" s="7">
-        <v>644046</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1893</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1359149</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>321</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,49 +5555,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>12</v>
+        <v>964</v>
       </c>
       <c r="D20" s="7">
-        <v>9698</v>
+        <v>715104</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H20" s="7">
+        <v>929</v>
+      </c>
+      <c r="I20" s="7">
+        <v>644046</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1893</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1359149</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="H20" s="7">
-        <v>13</v>
-      </c>
-      <c r="I20" s="7">
-        <v>8833</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="M20" s="7">
-        <v>25</v>
-      </c>
-      <c r="N20" s="7">
-        <v>18532</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,13 +5612,13 @@
         <v>724802</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>942</v>
@@ -5601,13 +5627,13 @@
         <v>652879</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>1918</v>
@@ -5616,13 +5642,18 @@
         <v>1377681</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1002-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1002-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CC6621A-D067-4631-B216-6A785D7FBE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AE6E172-5020-4050-A969-723A988F84CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8CC9686A-3599-4986-B15F-208A686F4A23}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{58791A2E-8BE9-4BF5-8281-70604B2A7E85}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="308">
   <si>
     <t>Menores según si padecen bronquitis crónica en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -107,19 +107,19 @@
     <t>96,96%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>1,04%</t>
   </si>
   <si>
-    <t>3,6%</t>
+    <t>3,22%</t>
   </si>
   <si>
     <t>2,27%</t>
   </si>
   <si>
-    <t>0,6%</t>
+    <t>0,61%</t>
   </si>
   <si>
     <t>5,65%</t>
@@ -128,16 +128,16 @@
     <t>1,63%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
   </si>
   <si>
     <t>98,96%</t>
   </si>
   <si>
-    <t>96,4%</t>
+    <t>96,78%</t>
   </si>
   <si>
     <t>97,73%</t>
@@ -146,19 +146,19 @@
     <t>94,35%</t>
   </si>
   <si>
-    <t>99,4%</t>
+    <t>99,39%</t>
   </si>
   <si>
     <t>98,37%</t>
   </si>
   <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,96%</t>
@@ -167,814 +167,784 @@
     <t>0,31%</t>
   </si>
   <si>
-    <t>2,55%</t>
+    <t>2,86%</t>
   </si>
   <si>
     <t>1,83%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
   </si>
   <si>
     <t>1,37%</t>
   </si>
   <si>
-    <t>0,63%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen bronquitis crónica en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen bronquitis crónica en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
   </si>
   <si>
     <t>2,45%</t>
   </si>
   <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
   </si>
   <si>
     <t>97,55%</t>
   </si>
   <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen bronquitis crónica en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
   </si>
   <si>
     <t>0,87%</t>
   </si>
   <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
   </si>
   <si>
     <t>98,16%</t>
   </si>
   <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen bronquitis crónica en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen bronquitis crónica en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen bronquitis crónica en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
     <t>2,34%</t>
   </si>
   <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
+    <t>4,41%</t>
   </si>
   <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
+    <t>4,29%</t>
   </si>
   <si>
     <t>97,66%</t>
   </si>
   <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
     <t>97,96%</t>
   </si>
   <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
+    <t>95,59%</t>
   </si>
   <si>
     <t>97,81%</t>
   </si>
   <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
   </si>
   <si>
     <t>99,29%</t>
   </si>
   <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
   </si>
   <si>
     <t>1,34%</t>
@@ -983,34 +953,16 @@
     <t>0,7%</t>
   </si>
   <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
+    <t>2,02%</t>
   </si>
   <si>
     <t>98,66%</t>
   </si>
   <si>
-    <t>97,5%</t>
-  </si>
-  <si>
     <t>99,3%</t>
   </si>
   <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
+    <t>97,98%</t>
   </si>
 </sst>
 </file>
@@ -1422,7 +1374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4C589F-1018-4CAF-A441-9AF5697E61A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F312DEB-4FB4-44B3-954B-D8689A183367}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2199,10 +2151,10 @@
         <v>81</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2217,13 +2169,13 @@
         <v>204033</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H17" s="7">
         <v>272</v>
@@ -2232,10 +2184,10 @@
         <v>207674</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -2247,13 +2199,13 @@
         <v>411707</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2321,13 +2273,13 @@
         <v>8521</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -2336,13 +2288,13 @@
         <v>9584</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M19" s="7">
         <v>27</v>
@@ -2351,13 +2303,13 @@
         <v>18105</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2372,13 +2324,13 @@
         <v>714179</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="H20" s="7">
         <v>1003</v>
@@ -2485,7 +2437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9B9416-4265-41C6-A9C6-AA557F4411D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB77535-9C16-4B76-B568-6C322CC56B4E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2782,10 +2734,10 @@
         <v>119</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -2794,13 +2746,13 @@
         <v>7374</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2815,13 +2767,13 @@
         <v>122553</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H8" s="7">
         <v>156</v>
@@ -2830,13 +2782,13 @@
         <v>111734</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>129</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="M8" s="7">
         <v>330</v>
@@ -2845,13 +2797,13 @@
         <v>234287</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2919,13 +2871,13 @@
         <v>5854</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -2934,13 +2886,13 @@
         <v>3385</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>47</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -2949,13 +2901,13 @@
         <v>9239</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2967,13 +2919,13 @@
         <v>313</v>
       </c>
       <c r="D11" s="7">
-        <v>216123</v>
+        <v>216124</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>69</v>
@@ -2985,10 +2937,10 @@
         <v>202013</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>57</v>
@@ -3000,13 +2952,13 @@
         <v>418137</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,7 +2970,7 @@
         <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>221977</v>
+        <v>221978</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -3074,13 +3026,13 @@
         <v>4810</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -3089,13 +3041,13 @@
         <v>3028</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -3104,13 +3056,13 @@
         <v>7838</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>151</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,13 +3077,13 @@
         <v>161175</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="H14" s="7">
         <v>236</v>
@@ -3140,13 +3092,13 @@
         <v>151811</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>484</v>
@@ -3155,13 +3107,13 @@
         <v>312986</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>159</v>
+        <v>56</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3229,13 +3181,13 @@
         <v>2133</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -3244,13 +3196,13 @@
         <v>2080</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -3259,13 +3211,13 @@
         <v>4213</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,13 +3232,13 @@
         <v>204949</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H17" s="7">
         <v>272</v>
@@ -3295,10 +3247,10 @@
         <v>208220</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>172</v>
@@ -3417,10 +3369,10 @@
         <v>182</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3435,13 +3387,13 @@
         <v>730255</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H20" s="7">
         <v>1002</v>
@@ -3450,13 +3402,13 @@
         <v>696151</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M20" s="7">
         <v>2043</v>
@@ -3465,13 +3417,13 @@
         <v>1426406</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3548,7 +3500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6352E21A-6C8F-4735-9211-50E2A7BBAD31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6107F068-CBF9-478D-8F77-FC8E0E6D3877}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3565,7 +3517,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3678,7 +3630,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3693,7 +3645,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3726,7 +3678,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3741,7 +3693,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3827,13 +3779,13 @@
         <v>652</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -3842,13 +3794,13 @@
         <v>1213</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -3857,13 +3809,13 @@
         <v>1865</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,10 +3830,10 @@
         <v>121850</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -3893,10 +3845,10 @@
         <v>109967</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -3908,13 +3860,13 @@
         <v>231817</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3982,13 +3934,13 @@
         <v>4689</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -3997,13 +3949,13 @@
         <v>2904</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -4012,13 +3964,13 @@
         <v>7593</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>218</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4033,13 +3985,13 @@
         <v>219670</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="H11" s="7">
         <v>329</v>
@@ -4048,13 +4000,13 @@
         <v>204343</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="M11" s="7">
         <v>654</v>
@@ -4063,13 +4015,13 @@
         <v>424013</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>224</v>
+        <v>68</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>171</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4137,13 +4089,13 @@
         <v>2588</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4158,7 +4110,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -4167,13 +4119,13 @@
         <v>3799</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4188,13 +4140,13 @@
         <v>164085</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>257</v>
@@ -4203,10 +4155,10 @@
         <v>154786</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -4218,13 +4170,13 @@
         <v>318871</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>56</v>
+        <v>227</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,7 +4250,7 @@
         <v>62</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -4307,13 +4259,13 @@
         <v>2386</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -4322,13 +4274,13 @@
         <v>4534</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4346,7 +4298,7 @@
         <v>31</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>71</v>
@@ -4358,13 +4310,13 @@
         <v>205034</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>129</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="M17" s="7">
         <v>565</v>
@@ -4373,13 +4325,13 @@
         <v>408622</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,13 +4399,13 @@
         <v>10077</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -4462,13 +4414,13 @@
         <v>7714</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>252</v>
+        <v>26</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="M19" s="7">
         <v>27</v>
@@ -4477,13 +4429,13 @@
         <v>17791</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,13 +4450,13 @@
         <v>734767</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="H20" s="7">
         <v>1049</v>
@@ -4513,13 +4465,13 @@
         <v>696657</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>258</v>
+        <v>35</v>
       </c>
       <c r="M20" s="7">
         <v>2099</v>
@@ -4528,13 +4480,13 @@
         <v>1431424</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,7 +4563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8761FFB6-9FAC-46BF-9F97-207E7EF2707C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5B7D34-A208-421C-89AC-34A07B6EA7C1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4628,7 +4580,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4741,7 +4693,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4771,7 +4723,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>153</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,7 +4741,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4819,7 +4771,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>255</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -4890,13 +4842,13 @@
         <v>1819</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -4905,13 +4857,13 @@
         <v>2503</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -4920,13 +4872,13 @@
         <v>4322</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>269</v>
+        <v>200</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,10 +4893,10 @@
         <v>111875</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -4956,13 +4908,13 @@
         <v>101392</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="M8" s="7">
         <v>314</v>
@@ -4971,13 +4923,13 @@
         <v>213267</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>277</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5045,13 +4997,13 @@
         <v>2427</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>163</v>
+        <v>41</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>146</v>
+        <v>269</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -5060,13 +5012,13 @@
         <v>1679</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>97</v>
+        <v>270</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -5075,13 +5027,13 @@
         <v>4107</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>119</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,13 +5048,13 @@
         <v>247759</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>154</v>
+        <v>275</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>51</v>
       </c>
       <c r="H11" s="7">
         <v>277</v>
@@ -5111,13 +5063,13 @@
         <v>190673</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>107</v>
+        <v>276</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>617</v>
@@ -5126,13 +5078,13 @@
         <v>438431</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>128</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5200,13 +5152,13 @@
         <v>4049</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>149</v>
+        <v>281</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -5215,13 +5167,13 @@
         <v>3432</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>26</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -5230,13 +5182,13 @@
         <v>7481</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>232</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,13 +5203,13 @@
         <v>169159</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>158</v>
+        <v>289</v>
       </c>
       <c r="H14" s="7">
         <v>221</v>
@@ -5266,13 +5218,13 @@
         <v>164470</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>35</v>
       </c>
       <c r="M14" s="7">
         <v>441</v>
@@ -5281,13 +5233,13 @@
         <v>333629</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,13 +5307,13 @@
         <v>1403</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -5370,13 +5322,13 @@
         <v>1220</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>302</v>
+        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -5385,13 +5337,13 @@
         <v>2623</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>303</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5406,10 +5358,10 @@
         <v>173613</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -5421,10 +5373,10 @@
         <v>170723</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>308</v>
+        <v>227</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -5436,13 +5388,13 @@
         <v>344335</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>309</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,13 +5462,13 @@
         <v>9698</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>314</v>
+        <v>223</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -5525,13 +5477,13 @@
         <v>8833</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>316</v>
+        <v>234</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -5540,13 +5492,13 @@
         <v>18532</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>317</v>
+        <v>98</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>119</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5561,13 +5513,13 @@
         <v>715104</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>319</v>
+        <v>227</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="H20" s="7">
         <v>929</v>
@@ -5576,13 +5528,13 @@
         <v>644046</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>321</v>
+        <v>239</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="M20" s="7">
         <v>1893</v>
@@ -5591,13 +5543,13 @@
         <v>1359149</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>128</v>
+        <v>307</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>323</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
